--- a/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-3,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>-62,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-43,8%</t>
+          <t>-62,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,37%</t>
+          <t>-33,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,78</t>
+          <t>-9,87; 1,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,08</t>
+          <t>-3,74; 0,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 0,61</t>
+          <t>-17,99; 0,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 6,6</t>
+          <t>-6,38; 7,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 8,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,04; 106,62</t>
+          <t>-93,62; 103,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-87,84; 151,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,36; 5,17</t>
+          <t>-66,9; 3,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,42; 35,58</t>
+          <t>-23,9; 39,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 32,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-4,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>-41,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-26,92%</t>
+          <t>-40,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,27%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 1,87</t>
+          <t>-14,14; -2,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,51</t>
+          <t>-7,94; -0,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 2,56</t>
+          <t>-6,87; 5,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 2,57</t>
+          <t>-10,26; 1,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 17,81</t>
+          <t>-62,49; -12,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,99; 30,9</t>
+          <t>-66,29; -1,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 10,89</t>
+          <t>-24,14; 26,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 8,17</t>
+          <t>-26,08; 4,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 12,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,36</t>
+          <t>-7,5; 7,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 2,49</t>
+          <t>-5,61; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 9,63</t>
+          <t>-2,23; 11,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 6,47</t>
+          <t>-6,21; 6,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 33,47</t>
+          <t>-31,69; 54,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 32,09</t>
+          <t>-41,31; 60,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 31,13</t>
+          <t>-5,9; 38,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 15,12</t>
+          <t>-12,69; 15,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 3,7</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,38%</t>
+          <t>-31,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 1,5</t>
+          <t>-2,09; 4,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 0,14</t>
+          <t>-3,8; 0,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 1,76</t>
+          <t>-15,36; -1,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 1,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 13,12</t>
+          <t>-16,5; 43,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 3,35</t>
+          <t>-61,56; 31,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 7,08</t>
+          <t>-49,11; -7,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 6,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 4,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,04%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-25,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-6,13%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 1,27</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 0,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 1,56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 1,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-25,06; 11,13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-43,86; 1,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-19,16; 6,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,5; 3,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15_4-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,24</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-62,07%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-62,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-33,32%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-3.66010796795489</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8630292969864839</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-5.28725997238455</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5734928774917963</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>-0.6206710792647906</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.6257750255245385</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3006487870796805</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.02638527037323113</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,87; 1,05</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 0,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,99; 0,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 7,04</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-93,62; 103,04</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-66,9; 3,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-23,9; 39,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.870914812945983</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.808771333676155</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.5116694400598</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.148783342493836</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.9362433418270616</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.6286474498403386</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2362863198456803</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.047816608232496</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9730064934083666</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.070604242590871</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.196928210571878</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.030409064392494</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>0.1004444569206618</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.4079410495755836</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-7,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-41,63%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-40,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-3,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-12,81%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; -2,22</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; -0,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 5,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 1,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-62,49; -12,55</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-66,29; -1,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,14; 26,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-26,08; 4,05</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-7.803232749412794</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.166515489966685</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3800519769935007</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.411534006088635</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>-0.416336940234192</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.413588294023871</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.01544082874743994</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1230293693752353</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,56</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,46%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-14.13902049051248</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.727550965372645</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.561204175691307</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.12403139606384</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.6248619454404393</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6711637709639316</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.234077890694486</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2555801996920924</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 7,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; 4,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 11,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 6,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-31,69; 54,61</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-41,31; 60,09</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,9; 38,33</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; 15,91</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-2.217628374682087</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.1995862037991627</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.838166738360901</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.66474956054044</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>-0.1254587011256725</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.01889427151968195</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2809463126694348</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.05399385994275778</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +851,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-8,51</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-31,47%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.1403857816280968</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7342908055541664</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.426312116730347</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.07863143485491997</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>-0.007168111794471959</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.06696876231045541</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1284223766638299</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.001698753530261124</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 4,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 0,87</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; -1,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 43,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-61,56; 31,94</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,11; -7,35</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.502171287388924</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.563060434331426</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.305885763180109</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.489086518643855</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.3169259236501125</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4618634852244091</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.06079798575414751</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1319221165892669</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.864174486952813</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.129080616434782</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.37068618750868</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.552824614383942</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.5461390524176468</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.500760926404011</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3781526211847411</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1514210848351267</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,75</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-8,04%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-25,34%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-7,72%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-6,13%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 1,27</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 0,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; 1,56</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-6,07; 1,13</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-25,06; 11,13</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-43,86; 1,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-19,16; 6,29</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 3,74</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-4.420499708267064</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.579864696502276</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.02080784569084559</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.207282507588698</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>-0.2623766341046123</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.287340434129929</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.0007887368161965265</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06105952623511342</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.482299828902278</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.693314601156176</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.982359544728385</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.839720530070838</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.4426130610237882</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5179890320505838</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1401250690487292</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1526318142513547</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.5785193964216667</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.02186546346256337</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.997479209226384</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.373069905431029</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>-0.03881976077018053</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.004196668171270001</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1720999251750774</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.04037025282198419</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
